--- a/natmiOut/OldD4/LR-pairs_lrc2p/Tgfb2-Acvr1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Tgfb2-Acvr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Acvr1</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.75450967993834</v>
+        <v>1.833451</v>
       </c>
       <c r="H2">
-        <v>1.75450967993834</v>
+        <v>5.500353</v>
       </c>
       <c r="I2">
-        <v>0.09218924812392852</v>
+        <v>0.08912979432221635</v>
       </c>
       <c r="J2">
-        <v>0.09218924812392852</v>
+        <v>0.1065114253185847</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.15081064679631</v>
+        <v>8.206141000000001</v>
       </c>
       <c r="N2">
-        <v>7.15081064679631</v>
+        <v>24.618423</v>
       </c>
       <c r="O2">
-        <v>0.1604694790602445</v>
+        <v>0.1726874201070044</v>
       </c>
       <c r="P2">
-        <v>0.1604694790602445</v>
+        <v>0.185725470694853</v>
       </c>
       <c r="Q2">
-        <v>12.54616649921027</v>
+        <v>15.045557422591</v>
       </c>
       <c r="R2">
-        <v>12.54616649921027</v>
+        <v>135.410016803319</v>
       </c>
       <c r="S2">
-        <v>0.01479356062140243</v>
+        <v>0.01539159423617147</v>
       </c>
       <c r="T2">
-        <v>0.01479356062140243</v>
+        <v>0.01978188460167384</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.75450967993834</v>
+        <v>1.833451</v>
       </c>
       <c r="H3">
-        <v>1.75450967993834</v>
+        <v>5.500353</v>
       </c>
       <c r="I3">
-        <v>0.09218924812392852</v>
+        <v>0.08912979432221635</v>
       </c>
       <c r="J3">
-        <v>0.09218924812392852</v>
+        <v>0.1065114253185847</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>18.8817419785135</v>
+        <v>19.840792</v>
       </c>
       <c r="N3">
-        <v>18.8817419785135</v>
+        <v>59.522376</v>
       </c>
       <c r="O3">
-        <v>0.423720253367285</v>
+        <v>0.4175233137426826</v>
       </c>
       <c r="P3">
-        <v>0.423720253367285</v>
+        <v>0.4490466874939968</v>
       </c>
       <c r="Q3">
-        <v>33.12819907540004</v>
+        <v>36.377119933192</v>
       </c>
       <c r="R3">
-        <v>33.12819907540004</v>
+        <v>327.394079398728</v>
       </c>
       <c r="S3">
-        <v>0.03906245157281049</v>
+        <v>0.03721376707861551</v>
       </c>
       <c r="T3">
-        <v>0.03906245157281049</v>
+        <v>0.0478286027195747</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.75450967993834</v>
+        <v>1.833451</v>
       </c>
       <c r="H4">
-        <v>1.75450967993834</v>
+        <v>5.500353</v>
       </c>
       <c r="I4">
-        <v>0.09218924812392852</v>
+        <v>0.08912979432221635</v>
       </c>
       <c r="J4">
-        <v>0.09218924812392852</v>
+        <v>0.1065114253185847</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.8765766608389</v>
+        <v>4.442508333333334</v>
       </c>
       <c r="N4">
-        <v>3.8765766608389</v>
+        <v>13.327525</v>
       </c>
       <c r="O4">
-        <v>0.08699324706362065</v>
+        <v>0.09348673181306551</v>
       </c>
       <c r="P4">
-        <v>0.08699324706362065</v>
+        <v>0.100545061469714</v>
       </c>
       <c r="Q4">
-        <v>6.801491276464898</v>
+        <v>8.145121346258334</v>
       </c>
       <c r="R4">
-        <v>6.801491276464898</v>
+        <v>73.306092116325</v>
       </c>
       <c r="S4">
-        <v>0.008019842038654339</v>
+        <v>0.008332453178354729</v>
       </c>
       <c r="T4">
-        <v>0.008019842038654339</v>
+        <v>0.01070919780588396</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.75450967993834</v>
+        <v>1.833451</v>
       </c>
       <c r="H5">
-        <v>1.75450967993834</v>
+        <v>5.500353</v>
       </c>
       <c r="I5">
-        <v>0.09218924812392852</v>
+        <v>0.08912979432221635</v>
       </c>
       <c r="J5">
-        <v>0.09218924812392852</v>
+        <v>0.1065114253185847</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.97794052910352</v>
+        <v>5.022911666666666</v>
       </c>
       <c r="N5">
-        <v>4.97794052910352</v>
+        <v>15.068735</v>
       </c>
       <c r="O5">
-        <v>0.1117086667447976</v>
+        <v>0.1057005548822571</v>
       </c>
       <c r="P5">
-        <v>0.1117086667447976</v>
+        <v>0.1136810388159715</v>
       </c>
       <c r="Q5">
-        <v>8.733844844469509</v>
+        <v>9.209262418161666</v>
       </c>
       <c r="R5">
-        <v>8.733844844469509</v>
+        <v>82.883361763455</v>
       </c>
       <c r="S5">
-        <v>0.01029833799612939</v>
+        <v>0.009421068716399715</v>
       </c>
       <c r="T5">
-        <v>0.01029833799612939</v>
+        <v>0.01210832947598649</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.75450967993834</v>
+        <v>1.833451</v>
       </c>
       <c r="H6">
-        <v>1.75450967993834</v>
+        <v>5.500353</v>
       </c>
       <c r="I6">
-        <v>0.09218924812392852</v>
+        <v>0.08912979432221635</v>
       </c>
       <c r="J6">
-        <v>0.09218924812392852</v>
+        <v>0.1065114253185847</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.674741494122721</v>
+        <v>10.0078485</v>
       </c>
       <c r="N6">
-        <v>9.674741494122721</v>
+        <v>20.015697</v>
       </c>
       <c r="O6">
-        <v>0.2171083537640522</v>
+        <v>0.2106019794549903</v>
       </c>
       <c r="P6">
-        <v>0.2171083537640522</v>
+        <v>0.1510017415254648</v>
       </c>
       <c r="Q6">
-        <v>16.97442760233943</v>
+        <v>18.3488998401735</v>
       </c>
       <c r="R6">
-        <v>16.97442760233943</v>
+        <v>110.093399041041</v>
       </c>
       <c r="S6">
-        <v>0.02001505589493186</v>
+        <v>0.01877091111267492</v>
       </c>
       <c r="T6">
-        <v>0.02001505589493186</v>
+        <v>0.01608341071546578</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.67158210149335</v>
+        <v>8.640871666666667</v>
       </c>
       <c r="H7">
-        <v>7.67158210149335</v>
+        <v>25.922615</v>
       </c>
       <c r="I7">
-        <v>0.4030968845281688</v>
+        <v>0.4200598294771264</v>
       </c>
       <c r="J7">
-        <v>0.4030968845281688</v>
+        <v>0.5019777224543451</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.15081064679631</v>
+        <v>8.206141000000001</v>
       </c>
       <c r="N7">
-        <v>7.15081064679631</v>
+        <v>24.618423</v>
       </c>
       <c r="O7">
-        <v>0.1604694790602445</v>
+        <v>0.1726874201070044</v>
       </c>
       <c r="P7">
-        <v>0.1604694790602445</v>
+        <v>0.185725470694853</v>
       </c>
       <c r="Q7">
-        <v>54.85803096913065</v>
+        <v>70.90821125957167</v>
       </c>
       <c r="R7">
-        <v>54.85803096913065</v>
+        <v>638.173901336145</v>
       </c>
       <c r="S7">
-        <v>0.06468474707104277</v>
+        <v>0.07253904824299315</v>
       </c>
       <c r="T7">
-        <v>0.06468474707104277</v>
+        <v>0.09323004878116353</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.67158210149335</v>
+        <v>8.640871666666667</v>
       </c>
       <c r="H8">
-        <v>7.67158210149335</v>
+        <v>25.922615</v>
       </c>
       <c r="I8">
-        <v>0.4030968845281688</v>
+        <v>0.4200598294771264</v>
       </c>
       <c r="J8">
-        <v>0.4030968845281688</v>
+        <v>0.5019777224543451</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>18.8817419785135</v>
+        <v>19.840792</v>
       </c>
       <c r="N8">
-        <v>18.8817419785135</v>
+        <v>59.522376</v>
       </c>
       <c r="O8">
-        <v>0.423720253367285</v>
+        <v>0.4175233137426826</v>
       </c>
       <c r="P8">
-        <v>0.423720253367285</v>
+        <v>0.4490466874939968</v>
       </c>
       <c r="Q8">
-        <v>144.8528338073798</v>
+        <v>171.4417374370267</v>
       </c>
       <c r="R8">
-        <v>144.8528338073798</v>
+        <v>1542.97563693324</v>
       </c>
       <c r="S8">
-        <v>0.1708003140438389</v>
+        <v>0.175384771973476</v>
       </c>
       <c r="T8">
-        <v>0.1708003140438389</v>
+        <v>0.2254114334639046</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.67158210149335</v>
+        <v>8.640871666666667</v>
       </c>
       <c r="H9">
-        <v>7.67158210149335</v>
+        <v>25.922615</v>
       </c>
       <c r="I9">
-        <v>0.4030968845281688</v>
+        <v>0.4200598294771264</v>
       </c>
       <c r="J9">
-        <v>0.4030968845281688</v>
+        <v>0.5019777224543451</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.8765766608389</v>
+        <v>4.442508333333334</v>
       </c>
       <c r="N9">
-        <v>3.8765766608389</v>
+        <v>13.327525</v>
       </c>
       <c r="O9">
-        <v>0.08699324706362065</v>
+        <v>0.09348673181306551</v>
       </c>
       <c r="P9">
-        <v>0.08699324706362065</v>
+        <v>0.100545061469714</v>
       </c>
       <c r="Q9">
-        <v>29.73947612635856</v>
+        <v>38.38714438643056</v>
       </c>
       <c r="R9">
-        <v>29.73947612635856</v>
+        <v>345.484299477875</v>
       </c>
       <c r="S9">
-        <v>0.03506670686633475</v>
+        <v>0.03927002062377014</v>
       </c>
       <c r="T9">
-        <v>0.03506670686633475</v>
+        <v>0.05047138096059917</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.67158210149335</v>
+        <v>8.640871666666667</v>
       </c>
       <c r="H10">
-        <v>7.67158210149335</v>
+        <v>25.922615</v>
       </c>
       <c r="I10">
-        <v>0.4030968845281688</v>
+        <v>0.4200598294771264</v>
       </c>
       <c r="J10">
-        <v>0.4030968845281688</v>
+        <v>0.5019777224543451</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.97794052910352</v>
+        <v>5.022911666666666</v>
       </c>
       <c r="N10">
-        <v>4.97794052910352</v>
+        <v>15.068735</v>
       </c>
       <c r="O10">
-        <v>0.1117086667447976</v>
+        <v>0.1057005548822571</v>
       </c>
       <c r="P10">
-        <v>0.1117086667447976</v>
+        <v>0.1136810388159715</v>
       </c>
       <c r="Q10">
-        <v>38.1886794653689</v>
+        <v>43.40233510466945</v>
       </c>
       <c r="R10">
-        <v>38.1886794653689</v>
+        <v>390.621015942025</v>
       </c>
       <c r="S10">
-        <v>0.04502941553962338</v>
+        <v>0.04440055705947855</v>
       </c>
       <c r="T10">
-        <v>0.04502941553962338</v>
+        <v>0.05706534895108539</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.67158210149335</v>
+        <v>8.640871666666667</v>
       </c>
       <c r="H11">
-        <v>7.67158210149335</v>
+        <v>25.922615</v>
       </c>
       <c r="I11">
-        <v>0.4030968845281688</v>
+        <v>0.4200598294771264</v>
       </c>
       <c r="J11">
-        <v>0.4030968845281688</v>
+        <v>0.5019777224543451</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.674741494122721</v>
+        <v>10.0078485</v>
       </c>
       <c r="N11">
-        <v>9.674741494122721</v>
+        <v>20.015697</v>
       </c>
       <c r="O11">
-        <v>0.2171083537640522</v>
+        <v>0.2106019794549903</v>
       </c>
       <c r="P11">
-        <v>0.2171083537640522</v>
+        <v>0.1510017415254648</v>
       </c>
       <c r="Q11">
-        <v>74.22057368288689</v>
+        <v>86.47653454794251</v>
       </c>
       <c r="R11">
-        <v>74.22057368288689</v>
+        <v>518.859207287655</v>
       </c>
       <c r="S11">
-        <v>0.08751570100732897</v>
+        <v>0.08846543157740849</v>
       </c>
       <c r="T11">
-        <v>0.08751570100732897</v>
+        <v>0.07579951029759252</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>9.605516737381491</v>
+        <v>0.025497</v>
       </c>
       <c r="H12">
-        <v>9.605516737381491</v>
+        <v>0.076491</v>
       </c>
       <c r="I12">
-        <v>0.5047138673479027</v>
+        <v>0.001239489010523625</v>
       </c>
       <c r="J12">
-        <v>0.5047138673479027</v>
+        <v>0.001481207739583962</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.15081064679631</v>
+        <v>8.206141000000001</v>
       </c>
       <c r="N12">
-        <v>7.15081064679631</v>
+        <v>24.618423</v>
       </c>
       <c r="O12">
-        <v>0.1604694790602445</v>
+        <v>0.1726874201070044</v>
       </c>
       <c r="P12">
-        <v>0.1604694790602445</v>
+        <v>0.185725470694853</v>
       </c>
       <c r="Q12">
-        <v>68.68723135364772</v>
+        <v>0.209231977077</v>
       </c>
       <c r="R12">
-        <v>68.68723135364772</v>
+        <v>1.883087793693</v>
       </c>
       <c r="S12">
-        <v>0.08099117136779928</v>
+        <v>0.0002140441594783084</v>
       </c>
       <c r="T12">
-        <v>0.08099117136779928</v>
+        <v>0.0002750980046310907</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>9.605516737381491</v>
+        <v>0.025497</v>
       </c>
       <c r="H13">
-        <v>9.605516737381491</v>
+        <v>0.076491</v>
       </c>
       <c r="I13">
-        <v>0.5047138673479027</v>
+        <v>0.001239489010523625</v>
       </c>
       <c r="J13">
-        <v>0.5047138673479027</v>
+        <v>0.001481207739583962</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>18.8817419785135</v>
+        <v>19.840792</v>
       </c>
       <c r="N13">
-        <v>18.8817419785135</v>
+        <v>59.522376</v>
       </c>
       <c r="O13">
-        <v>0.423720253367285</v>
+        <v>0.4175233137426826</v>
       </c>
       <c r="P13">
-        <v>0.423720253367285</v>
+        <v>0.4490466874939968</v>
       </c>
       <c r="Q13">
-        <v>181.3688886055301</v>
+        <v>0.505880673624</v>
       </c>
       <c r="R13">
-        <v>181.3688886055301</v>
+        <v>4.552926062616001</v>
       </c>
       <c r="S13">
-        <v>0.2138574877506356</v>
+        <v>0.0005175155590214627</v>
       </c>
       <c r="T13">
-        <v>0.2138574877506356</v>
+        <v>0.000665131428950649</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>9.605516737381491</v>
+        <v>0.025497</v>
       </c>
       <c r="H14">
-        <v>9.605516737381491</v>
+        <v>0.076491</v>
       </c>
       <c r="I14">
-        <v>0.5047138673479027</v>
+        <v>0.001239489010523625</v>
       </c>
       <c r="J14">
-        <v>0.5047138673479027</v>
+        <v>0.001481207739583962</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.8765766608389</v>
+        <v>4.442508333333334</v>
       </c>
       <c r="N14">
-        <v>3.8765766608389</v>
+        <v>13.327525</v>
       </c>
       <c r="O14">
-        <v>0.08699324706362065</v>
+        <v>0.09348673181306551</v>
       </c>
       <c r="P14">
-        <v>0.08699324706362065</v>
+        <v>0.100545061469714</v>
       </c>
       <c r="Q14">
-        <v>37.23652199943051</v>
+        <v>0.113270634975</v>
       </c>
       <c r="R14">
-        <v>37.23652199943051</v>
+        <v>1.019435714775</v>
       </c>
       <c r="S14">
-        <v>0.04390669815863155</v>
+        <v>0.000115875776712064</v>
       </c>
       <c r="T14">
-        <v>0.04390669815863155</v>
+        <v>0.0001489281232258857</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
@@ -1343,49 +1343,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>9.605516737381491</v>
+        <v>0.025497</v>
       </c>
       <c r="H15">
-        <v>9.605516737381491</v>
+        <v>0.076491</v>
       </c>
       <c r="I15">
-        <v>0.5047138673479027</v>
+        <v>0.001239489010523625</v>
       </c>
       <c r="J15">
-        <v>0.5047138673479027</v>
+        <v>0.001481207739583962</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.97794052910352</v>
+        <v>5.022911666666666</v>
       </c>
       <c r="N15">
-        <v>4.97794052910352</v>
+        <v>15.068735</v>
       </c>
       <c r="O15">
-        <v>0.1117086667447976</v>
+        <v>0.1057005548822571</v>
       </c>
       <c r="P15">
-        <v>0.1117086667447976</v>
+        <v>0.1136810388159715</v>
       </c>
       <c r="Q15">
-        <v>47.81569106999354</v>
+        <v>0.128069178765</v>
       </c>
       <c r="R15">
-        <v>47.81569106999354</v>
+        <v>1.152622608885</v>
       </c>
       <c r="S15">
-        <v>0.05638091320904486</v>
+        <v>0.0001310146761828069</v>
       </c>
       <c r="T15">
-        <v>0.05638091320904486</v>
+        <v>0.0001683852345381619</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.025497</v>
+      </c>
+      <c r="H16">
+        <v>0.076491</v>
+      </c>
+      <c r="I16">
+        <v>0.001239489010523625</v>
+      </c>
+      <c r="J16">
+        <v>0.001481207739583962</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>10.0078485</v>
+      </c>
+      <c r="N16">
+        <v>20.015697</v>
+      </c>
+      <c r="O16">
+        <v>0.2106019794549903</v>
+      </c>
+      <c r="P16">
+        <v>0.1510017415254648</v>
+      </c>
+      <c r="Q16">
+        <v>0.2551701132045</v>
+      </c>
+      <c r="R16">
+        <v>1.531020679227</v>
+      </c>
+      <c r="S16">
+        <v>0.0002610388391289827</v>
+      </c>
+      <c r="T16">
+        <v>0.0002236649482381754</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>10.070754</v>
+      </c>
+      <c r="H17">
+        <v>20.141508</v>
+      </c>
+      <c r="I17">
+        <v>0.4895708871901336</v>
+      </c>
+      <c r="J17">
+        <v>0.3900296444874861</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>8.206141000000001</v>
+      </c>
+      <c r="N17">
+        <v>24.618423</v>
+      </c>
+      <c r="O17">
+        <v>0.1726874201070044</v>
+      </c>
+      <c r="P17">
+        <v>0.185725470694853</v>
+      </c>
+      <c r="Q17">
+        <v>82.64202730031401</v>
+      </c>
+      <c r="R17">
+        <v>495.852163801884</v>
+      </c>
+      <c r="S17">
+        <v>0.08454273346836146</v>
+      </c>
+      <c r="T17">
+        <v>0.07243843930738453</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>10.070754</v>
+      </c>
+      <c r="H18">
+        <v>20.141508</v>
+      </c>
+      <c r="I18">
+        <v>0.4895708871901336</v>
+      </c>
+      <c r="J18">
+        <v>0.3900296444874861</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>19.840792</v>
+      </c>
+      <c r="N18">
+        <v>59.522376</v>
+      </c>
+      <c r="O18">
+        <v>0.4175233137426826</v>
+      </c>
+      <c r="P18">
+        <v>0.4490466874939968</v>
+      </c>
+      <c r="Q18">
+        <v>199.811735397168</v>
+      </c>
+      <c r="R18">
+        <v>1198.870412383008</v>
+      </c>
+      <c r="S18">
+        <v>0.2044072591315697</v>
+      </c>
+      <c r="T18">
+        <v>0.1751415198815668</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>9.605516737381491</v>
-      </c>
-      <c r="H16">
-        <v>9.605516737381491</v>
-      </c>
-      <c r="I16">
-        <v>0.5047138673479027</v>
-      </c>
-      <c r="J16">
-        <v>0.5047138673479027</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>9.674741494122721</v>
-      </c>
-      <c r="N16">
-        <v>9.674741494122721</v>
-      </c>
-      <c r="O16">
-        <v>0.2171083537640522</v>
-      </c>
-      <c r="P16">
-        <v>0.2171083537640522</v>
-      </c>
-      <c r="Q16">
-        <v>92.930891351635</v>
-      </c>
-      <c r="R16">
-        <v>92.930891351635</v>
-      </c>
-      <c r="S16">
-        <v>0.1095775968617914</v>
-      </c>
-      <c r="T16">
-        <v>0.1095775968617914</v>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>10.070754</v>
+      </c>
+      <c r="H19">
+        <v>20.141508</v>
+      </c>
+      <c r="I19">
+        <v>0.4895708871901336</v>
+      </c>
+      <c r="J19">
+        <v>0.3900296444874861</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>4.442508333333334</v>
+      </c>
+      <c r="N19">
+        <v>13.327525</v>
+      </c>
+      <c r="O19">
+        <v>0.09348673181306551</v>
+      </c>
+      <c r="P19">
+        <v>0.100545061469714</v>
+      </c>
+      <c r="Q19">
+        <v>44.73940856795001</v>
+      </c>
+      <c r="R19">
+        <v>268.4364514077001</v>
+      </c>
+      <c r="S19">
+        <v>0.04576838223422857</v>
+      </c>
+      <c r="T19">
+        <v>0.03921555458000499</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>10.070754</v>
+      </c>
+      <c r="H20">
+        <v>20.141508</v>
+      </c>
+      <c r="I20">
+        <v>0.4895708871901336</v>
+      </c>
+      <c r="J20">
+        <v>0.3900296444874861</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>5.022911666666666</v>
+      </c>
+      <c r="N20">
+        <v>15.068735</v>
+      </c>
+      <c r="O20">
+        <v>0.1057005548822571</v>
+      </c>
+      <c r="P20">
+        <v>0.1136810388159715</v>
+      </c>
+      <c r="Q20">
+        <v>50.58450775873001</v>
+      </c>
+      <c r="R20">
+        <v>303.50704655238</v>
+      </c>
+      <c r="S20">
+        <v>0.05174791443019602</v>
+      </c>
+      <c r="T20">
+        <v>0.04433897515436148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>10.070754</v>
+      </c>
+      <c r="H21">
+        <v>20.141508</v>
+      </c>
+      <c r="I21">
+        <v>0.4895708871901336</v>
+      </c>
+      <c r="J21">
+        <v>0.3900296444874861</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>10.0078485</v>
+      </c>
+      <c r="N21">
+        <v>20.015697</v>
+      </c>
+      <c r="O21">
+        <v>0.2106019794549903</v>
+      </c>
+      <c r="P21">
+        <v>0.1510017415254648</v>
+      </c>
+      <c r="Q21">
+        <v>100.786580312769</v>
+      </c>
+      <c r="R21">
+        <v>403.146321251076</v>
+      </c>
+      <c r="S21">
+        <v>0.1031045979257779</v>
+      </c>
+      <c r="T21">
+        <v>0.05889515556416829</v>
       </c>
     </row>
   </sheetData>
